--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2095.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2095.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.846972553086651</v>
+        <v>3.620731830596924</v>
       </c>
       <c r="B1">
-        <v>3.074617797493358</v>
+        <v>2.749539136886597</v>
       </c>
       <c r="C1">
-        <v>2.730874981244978</v>
+        <v>2.322569608688354</v>
       </c>
       <c r="D1">
-        <v>3.003991603952219</v>
+        <v>2.424772500991821</v>
       </c>
       <c r="E1">
-        <v>2.875064458964908</v>
+        <v>2.717814445495605</v>
       </c>
     </row>
   </sheetData>
